--- a/Product-Backlog.xlsx
+++ b/Product-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDA46DE-6AC0-4999-93A9-C0B101606366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EED478-C125-49FB-B122-E43887BE3988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Banner</t>
   </si>
   <si>
-    <t>Services we provide</t>
-  </si>
-  <si>
     <t>Contact Us</t>
   </si>
   <si>
@@ -305,6 +302,15 @@
   </si>
   <si>
     <t>Login of individual dealer admin</t>
+  </si>
+  <si>
+    <t>Product related info</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Storing customer requests</t>
   </si>
 </sst>
 </file>
@@ -593,7 +599,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="8">
     <dxf>
       <font>
         <strike val="0"/>
@@ -601,20 +607,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -744,10 +736,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>768</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
@@ -790,7 +782,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>768</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1478,13 +1470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="H58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,15 +1585,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="5">
-        <f>SUM(H8:H65)</f>
-        <v>768</v>
+        <f>SUM(H8:H67)</f>
+        <v>186</v>
       </c>
       <c r="I5" s="5">
-        <f>SUM(I8:I46)</f>
-        <v>23</v>
+        <f>SUM(I8:I48)</f>
+        <v>24</v>
       </c>
       <c r="J5" s="5">
-        <f>SUM(J54:J65)</f>
+        <f>SUM(J56:J67)</f>
         <v>14</v>
       </c>
       <c r="K5" s="2"/>
@@ -1654,10 +1646,10 @@
         <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H8" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -1679,10 +1671,10 @@
         <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H9" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -1704,10 +1696,10 @@
         <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H10" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -1729,10 +1721,10 @@
         <v>22</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H11" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1744,48 +1736,42 @@
       <c r="A12" s="15"/>
       <c r="B12" s="8"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="3">
-        <v>22</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="15"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
@@ -1794,21 +1780,27 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
@@ -1817,7 +1809,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>18</v>
@@ -1826,10 +1818,10 @@
         <v>22</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H16" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -1841,31 +1833,25 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="3">
-        <v>23</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="20"/>
       <c r="F18" s="4"/>
@@ -1876,21 +1862,27 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="3">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
@@ -1899,7 +1891,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>18</v>
@@ -1908,10 +1900,10 @@
         <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H20" s="3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
@@ -1923,31 +1915,25 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="3">
-        <v>30</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="3">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="20"/>
       <c r="F22" s="4"/>
@@ -1958,21 +1944,27 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="3">
         <v>4</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
@@ -1981,23 +1973,17 @@
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="3">
-        <v>20</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
@@ -2015,10 +2001,10 @@
         <v>23</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H25" s="3">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -2040,10 +2026,10 @@
         <v>23</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H26" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
@@ -2088,19 +2074,15 @@
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="3">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="I29" s="3">
         <v>1</v>
@@ -2113,19 +2095,19 @@
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H30" s="3">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
@@ -2138,19 +2120,19 @@
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H31" s="3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
@@ -2162,22 +2144,32 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="3">
+        <v>6</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="20"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -2186,17 +2178,13 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>6</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="4"/>
+    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="20"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2206,27 +2194,21 @@
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="3">
-        <v>15</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1</v>
-      </c>
+      <c r="A35" s="3">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
@@ -2234,25 +2216,31 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="3">
+        <v>14</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>7</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="20"/>
       <c r="F37" s="4"/>
@@ -2263,27 +2251,21 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="3">
-        <v>24</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
+      <c r="A38" s="3">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
@@ -2292,19 +2274,19 @@
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" s="3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
@@ -2316,28 +2298,34 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="D40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>8</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2345,27 +2333,21 @@
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="3">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
+      <c r="A42" s="3">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
@@ -2374,7 +2356,7 @@
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>18</v>
@@ -2383,10 +2365,10 @@
         <v>22</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H43" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I43" s="3">
         <v>1</v>
@@ -2399,19 +2381,19 @@
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H44" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44" s="3">
         <v>1</v>
@@ -2424,19 +2406,19 @@
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
       <c r="D45" s="26" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H45" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I45" s="3">
         <v>1</v>
@@ -2449,7 +2431,7 @@
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
       <c r="D46" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>18</v>
@@ -2458,10 +2440,10 @@
         <v>23</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H46" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I46" s="3">
         <v>1</v>
@@ -2473,190 +2455,186 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="4"/>
+      <c r="D47" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="H47" s="3">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>9</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="4"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1</v>
-      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="A50" s="3">
+        <v>9</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="3">
-        <v>5</v>
-      </c>
-      <c r="I50" s="4">
-        <v>1</v>
-      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="25"/>
       <c r="D51" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H51" s="3">
-        <v>5</v>
-      </c>
-      <c r="I51" s="4">
+        <v>4</v>
+      </c>
+      <c r="I51" s="3">
         <v>1</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="3">
+        <v>6</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>10</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="3">
+        <v>5</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="3">
-        <v>23</v>
-      </c>
+      <c r="A54" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3">
-        <v>2</v>
-      </c>
+      <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="3">
-        <v>45</v>
-      </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="3">
-        <v>2</v>
-      </c>
+      <c r="A55" s="3">
+        <v>10</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2664,7 +2642,7 @@
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>19</v>
@@ -2676,7 +2654,7 @@
         <v>15</v>
       </c>
       <c r="H56" s="3">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3">
@@ -2688,77 +2666,89 @@
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="D57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="3">
+        <v>6</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="3">
+        <v>2</v>
+      </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="3"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5</v>
+      </c>
       <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="J58" s="3">
+        <v>2</v>
+      </c>
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>11</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="20"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="3">
-        <v>24</v>
-      </c>
+    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="3">
-        <v>2</v>
-      </c>
+      <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
+      <c r="A61" s="3">
+        <v>11</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="20"/>
       <c r="F61" s="4"/>
@@ -2769,72 +2759,60 @@
       <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>12</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="3"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5</v>
+      </c>
       <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="J62" s="3">
+        <v>2</v>
+      </c>
       <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="3">
-        <v>66</v>
-      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3">
-        <v>2</v>
-      </c>
+      <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="3">
-        <v>62</v>
-      </c>
+      <c r="A64" s="3">
+        <v>12</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="3">
-        <v>2</v>
-      </c>
+      <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -2842,19 +2820,19 @@
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H65" s="3">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3">
@@ -2863,22 +2841,28 @@
       <c r="K65" s="3"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>13</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="3"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="3">
+        <v>5</v>
+      </c>
       <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
+      <c r="J66" s="3">
+        <v>2</v>
+      </c>
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -2886,19 +2870,19 @@
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H67" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3">
@@ -2907,28 +2891,22 @@
       <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="3">
-        <v>12</v>
-      </c>
+      <c r="A68" s="3">
+        <v>13</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="3">
-        <v>2</v>
-      </c>
+      <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2936,19 +2914,19 @@
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3">
@@ -2956,33 +2934,83 @@
       </c>
       <c r="K69" s="3"/>
     </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="3">
+        <v>6</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3">
+        <v>2</v>
+      </c>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="3">
+        <v>8</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3">
+        <v>2</v>
+      </c>
+      <c r="K71" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A60:C60"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G14:G69">
-    <cfRule type="cellIs" dxfId="9" priority="43" operator="equal">
+  <conditionalFormatting sqref="G13:G71 G8:G11">
+    <cfRule type="cellIs" dxfId="7" priority="43" operator="equal">
       <formula>"In-Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="44" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G69">
-    <cfRule type="cellIs" dxfId="7" priority="172" operator="equal">
+  <conditionalFormatting sqref="G13:G71">
+    <cfRule type="cellIs" dxfId="5" priority="172" operator="equal">
       <formula>"In-Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="173" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="174" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="175">
@@ -2996,25 +3024,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G12">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="G8:G11">
+    <cfRule type="cellIs" dxfId="2" priority="180" operator="equal">
       <formula>"In-Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="181" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"In-Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"Completed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="182" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3026,10 +3046,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G12 G14:G69" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G71 G8:G11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Not Started,In-Progress,Completed,Removed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F12 F15:F69" xr:uid="{5EB879C5-3EBD-4A6A-BA72-330D8D9C819B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F71 F8:F11" xr:uid="{5EB879C5-3EBD-4A6A-BA72-330D8D9C819B}">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3042,7 +3062,7 @@
           <x14:formula1>
             <xm:f>'Release Phase'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E60:E69 E16:E36 E8:E13 E38:E58</xm:sqref>
+          <xm:sqref>E62:E71 E8:E12 E15:E37 E39:E60</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3078,7 +3098,7 @@
       </c>
       <c r="C3">
         <f>'Product Backlog'!H5</f>
-        <v>768</v>
+        <v>186</v>
       </c>
       <c r="D3">
         <v>0</v>

--- a/Product-Backlog.xlsx
+++ b/Product-Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EED478-C125-49FB-B122-E43887BE3988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C32784E-9216-4812-8974-0F2C296414FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="103">
   <si>
     <t>#</t>
   </si>
@@ -124,24 +124,9 @@
     <t xml:space="preserve">Signup and signin </t>
   </si>
   <si>
-    <t xml:space="preserve">request made by the new dealer </t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>display produts available in each city</t>
-  </si>
-  <si>
-    <t>Filter products</t>
-  </si>
-  <si>
     <t>Product description page</t>
   </si>
   <si>
-    <t xml:space="preserve"> view the selected product</t>
-  </si>
-  <si>
     <t>add to cart</t>
   </si>
   <si>
@@ -172,9 +157,6 @@
     <t>REQ6</t>
   </si>
   <si>
-    <t>track activities of dealers</t>
-  </si>
-  <si>
     <t>Application management for customer</t>
   </si>
   <si>
@@ -202,9 +184,6 @@
     <t>Tesla admin login</t>
   </si>
   <si>
-    <t>verify whether the dealer exists</t>
-  </si>
-  <si>
     <t>verify whether the tesla admin exists</t>
   </si>
   <si>
@@ -229,9 +208,6 @@
     <t>Dealer admin dashboard</t>
   </si>
   <si>
-    <t>Accept or reject newly registered dealers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Display product </t>
   </si>
   <si>
@@ -304,13 +280,73 @@
     <t>Login of individual dealer admin</t>
   </si>
   <si>
-    <t>Product related info</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Storing customer requests</t>
+  </si>
+  <si>
+    <t>REQ14</t>
+  </si>
+  <si>
+    <t>CI using Jenkins</t>
+  </si>
+  <si>
+    <t>Managing configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build projects in Jenkins </t>
+  </si>
+  <si>
+    <t>Continous integration</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Signup of the dealer</t>
+  </si>
+  <si>
+    <t>Dealer has to provide all the details</t>
+  </si>
+  <si>
+    <t>Should meet validations</t>
+  </si>
+  <si>
+    <t>View all the listed products</t>
+  </si>
+  <si>
+    <t>Filter the products</t>
+  </si>
+  <si>
+    <t>Check whether the product is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the product to view more information </t>
+  </si>
+  <si>
+    <t>Information includes product's desc. ,Image</t>
+  </si>
+  <si>
+    <t>Order confirmation</t>
+  </si>
+  <si>
+    <t>Login with provided credentials</t>
+  </si>
+  <si>
+    <t>Login falied show error message</t>
+  </si>
+  <si>
+    <t>Analysis of Dashboard</t>
+  </si>
+  <si>
+    <t>Accept the new registered dealer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject the new registered dealer </t>
+  </si>
+  <si>
+    <t>Track activities of dealer</t>
   </si>
 </sst>
 </file>
@@ -736,10 +772,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>186</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
@@ -782,7 +818,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>186</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1470,13 +1506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="H58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1520,7 @@
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="53.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1585,22 +1621,22 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="5">
-        <f>SUM(H8:H67)</f>
-        <v>186</v>
+        <f>SUM(H8:H73)</f>
+        <v>214</v>
       </c>
       <c r="I5" s="5">
-        <f>SUM(I8:I48)</f>
-        <v>24</v>
+        <f>SUM(I8:I54)</f>
+        <v>28</v>
       </c>
       <c r="J5" s="5">
-        <f>SUM(J56:J67)</f>
+        <f>SUM(J62:J73)</f>
         <v>14</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
@@ -1621,7 +1657,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="20"/>
@@ -1637,7 +1673,7 @@
       <c r="B8" s="8"/>
       <c r="C8" s="16"/>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>18</v>
@@ -1646,7 +1682,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H8" s="3">
         <v>6</v>
@@ -1662,7 +1698,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="16"/>
       <c r="D9" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>18</v>
@@ -1671,7 +1707,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H9" s="3">
         <v>4</v>
@@ -1687,7 +1723,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="16"/>
       <c r="D10" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>18</v>
@@ -1696,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
@@ -1712,7 +1748,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="16"/>
       <c r="D11" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>18</v>
@@ -1721,7 +1757,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
@@ -1784,7 +1820,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>18</v>
@@ -1793,14 +1829,12 @@
         <v>22</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
@@ -1809,16 +1843,16 @@
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H16" s="3">
         <v>3</v>
@@ -1833,25 +1867,31 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="20"/>
       <c r="F18" s="4"/>
@@ -1862,27 +1902,21 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="3">
-        <v>7</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
@@ -1891,7 +1925,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>18</v>
@@ -1900,10 +1934,10 @@
         <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H20" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
@@ -1915,31 +1949,45 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="3">
+        <v>8</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
@@ -1947,42 +1995,30 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="3">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="A24" s="3">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="3">
-        <v>5</v>
-      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1992,7 +2028,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>18</v>
@@ -2001,10 +2037,10 @@
         <v>23</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -2017,7 +2053,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>18</v>
@@ -2026,14 +2062,12 @@
         <v>23</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H26" s="3">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
@@ -2041,31 +2075,49 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>5</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
@@ -2073,45 +2125,31 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="3">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
+      <c r="A30" s="3">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
@@ -2120,19 +2158,19 @@
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H31" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
@@ -2145,19 +2183,19 @@
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H32" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
@@ -2169,46 +2207,74 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="3">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="3">
+        <v>7</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="3">
         <v>6</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
@@ -2216,32 +2282,22 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="3">
-        <v>14</v>
-      </c>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="20"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2252,13 +2308,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="20"/>
@@ -2274,19 +2330,19 @@
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H39" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
@@ -2299,19 +2355,19 @@
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H40" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I40" s="3">
         <v>1</v>
@@ -2325,7 +2381,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="27"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2334,13 +2390,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="20"/>
@@ -2355,8 +2411,8 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="26" t="s">
-        <v>74</v>
+      <c r="D43" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>18</v>
@@ -2365,10 +2421,10 @@
         <v>22</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H43" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I43" s="3">
         <v>1</v>
@@ -2380,20 +2436,20 @@
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="26" t="s">
-        <v>75</v>
+      <c r="D44" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H44" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I44" s="3">
         <v>1</v>
@@ -2405,20 +2461,20 @@
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="26" t="s">
-        <v>70</v>
+      <c r="D45" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H45" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I45" s="3">
         <v>1</v>
@@ -2430,20 +2486,20 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="26" t="s">
-        <v>76</v>
+      <c r="D46" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H46" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I46" s="3">
         <v>1</v>
@@ -2455,45 +2511,31 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="3">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1</v>
-      </c>
+      <c r="A48" s="3">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
@@ -2501,40 +2543,58 @@
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="D49" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>9</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="3">
+        <v>3</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="4" t="s">
-        <v>80</v>
+      <c r="C51" s="4"/>
+      <c r="D51" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>18</v>
@@ -2543,10 +2603,10 @@
         <v>24</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H51" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51" s="3">
         <v>1</v>
@@ -2554,24 +2614,24 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="4" t="s">
-        <v>81</v>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H52" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I52" s="3">
         <v>1</v>
@@ -2579,24 +2639,24 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="4" t="s">
-        <v>82</v>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H53" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I53" s="3">
         <v>1</v>
@@ -2605,31 +2665,36 @@
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="3">
+        <v>6</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>10</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="20"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="3"/>
@@ -2637,99 +2702,106 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="3">
-        <v>8</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3">
-        <v>2</v>
-      </c>
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>9</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="H57" s="3">
-        <v>6</v>
-      </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="3">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="H58" s="3">
+        <v>6</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" s="3">
         <v>5</v>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3">
-        <v>2</v>
-      </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
+        <v>39</v>
+      </c>
+      <c r="B60" s="35"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="4"/>
       <c r="E60" s="20"/>
       <c r="F60" s="4"/>
@@ -2741,15 +2813,14 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="4"/>
+        <v>41</v>
+      </c>
       <c r="E61" s="20"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -2763,19 +2834,19 @@
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H62" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3">
@@ -2787,176 +2858,153 @@
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="D63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="3">
+        <v>8</v>
+      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="3">
+        <v>2</v>
+      </c>
       <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>12</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="3"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="3">
+        <v>6</v>
+      </c>
       <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="J64" s="3">
+        <v>2</v>
+      </c>
       <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" s="20" t="s">
+      <c r="D65" s="4"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="30"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>11</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="4" t="s">
+      <c r="F68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="3">
-        <v>6</v>
-      </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3">
+      <c r="H68" s="3">
+        <v>5</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3">
         <v>2</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3">
-        <v>2</v>
-      </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="3">
-        <v>8</v>
-      </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3">
-        <v>2</v>
-      </c>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>13</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="3">
-        <v>4</v>
-      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="3">
-        <v>2</v>
-      </c>
+      <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="3">
-        <v>6</v>
-      </c>
+      <c r="A70" s="3">
+        <v>12</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="3">
-        <v>2</v>
-      </c>
+      <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -2964,19 +3012,19 @@
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H71" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3">
@@ -2984,18 +3032,279 @@
       </c>
       <c r="K71" s="3"/>
     </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="3">
+        <v>6</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3">
+        <v>2</v>
+      </c>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="3">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
+        <v>2</v>
+      </c>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>13</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="3">
+        <v>4</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3">
+        <v>2</v>
+      </c>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="3">
+        <v>6</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
+        <v>2</v>
+      </c>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="3">
+        <v>8</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
+        <v>2</v>
+      </c>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>14</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="3">
+        <v>8</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
+        <v>2</v>
+      </c>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="3">
+        <v>6</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
+        <v>2</v>
+      </c>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="3">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="3">
+        <v>5</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
+        <v>2</v>
+      </c>
+      <c r="K82" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A66:C66"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A60:C60"/>
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="G13:G71 G8:G11">
+  <conditionalFormatting sqref="G8:G11 G13:G82">
     <cfRule type="cellIs" dxfId="7" priority="43" operator="equal">
       <formula>"In-Progress"</formula>
     </cfRule>
@@ -3003,7 +3312,7 @@
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G71">
+  <conditionalFormatting sqref="G13:G82">
     <cfRule type="cellIs" dxfId="5" priority="172" operator="equal">
       <formula>"In-Progress"</formula>
     </cfRule>
@@ -3046,10 +3355,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G71 G8:G11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G82 G8:G11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Not Started,In-Progress,Completed,Removed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F71 F8:F11" xr:uid="{5EB879C5-3EBD-4A6A-BA72-330D8D9C819B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F82 F8:F11" xr:uid="{5EB879C5-3EBD-4A6A-BA72-330D8D9C819B}">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3062,7 +3371,7 @@
           <x14:formula1>
             <xm:f>'Release Phase'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E62:E71 E8:E12 E15:E37 E39:E60</xm:sqref>
+          <xm:sqref>E68:E82 E8:E12 E15:E41 E43:E66</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3098,7 +3407,7 @@
       </c>
       <c r="C3">
         <f>'Product Backlog'!H5</f>
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="D3">
         <v>0</v>
